--- a/SODO/A Tuc/BAOCAO-NQ10-4069/BAOCAO XA LIA_101-KHONGDUDK-NQ10.xlsx
+++ b/SODO/A Tuc/BAOCAO-NQ10-4069/BAOCAO XA LIA_101-KHONGDUDK-NQ10.xlsx
@@ -69,9 +69,6 @@
     <t>Hồ Thị Lịch</t>
   </si>
   <si>
-    <t>Hồ Thị Mộc</t>
-  </si>
-  <si>
     <t>Hồ Văn Diệu</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
   </si>
   <si>
     <t>Hồ Văn Pằng</t>
+  </si>
+  <si>
+    <t>Hồ Thị Thế</t>
   </si>
 </sst>
 </file>
@@ -770,7 +770,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -783,8 +783,8 @@
   </sheetPr>
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A94" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>8</v>
@@ -961,7 +961,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>8</v>
@@ -987,19 +987,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E8" s="9">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F8" s="9">
-        <v>8170</v>
+        <v>7651</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>9</v>
@@ -1013,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>8</v>
@@ -1039,7 +1039,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>8</v>
@@ -1065,7 +1065,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>8</v>
@@ -1091,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>8</v>
@@ -1117,7 +1117,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>8</v>
@@ -1143,7 +1143,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>8</v>
@@ -1169,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>8</v>
@@ -1195,7 +1195,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>8</v>
@@ -1221,7 +1221,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>8</v>
@@ -1247,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>8</v>
@@ -1273,7 +1273,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>8</v>
@@ -1299,7 +1299,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>8</v>
@@ -1325,7 +1325,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>8</v>
@@ -1351,7 +1351,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>8</v>
@@ -1377,7 +1377,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>8</v>
@@ -1403,7 +1403,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>8</v>
@@ -1429,7 +1429,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>8</v>
@@ -1455,7 +1455,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>8</v>
@@ -1481,7 +1481,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>8</v>
@@ -1507,7 +1507,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>8</v>
@@ -1533,7 +1533,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>8</v>
@@ -1559,7 +1559,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>8</v>
@@ -1585,7 +1585,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>8</v>
@@ -1600,7 +1600,7 @@
         <v>4432</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>12</v>
@@ -1611,10 +1611,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="6">
         <v>21</v>
@@ -1637,10 +1637,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="6">
         <v>21</v>
@@ -1655,7 +1655,7 @@
         <v>9</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1663,10 +1663,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="6">
         <v>21</v>
@@ -1681,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1689,10 +1689,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="6">
         <v>21</v>
@@ -1707,7 +1707,7 @@
         <v>9</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1715,10 +1715,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" s="6">
         <v>21</v>
@@ -1733,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,10 +1741,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="6">
         <v>21</v>
@@ -1767,10 +1767,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="6">
         <v>21</v>
@@ -1785,7 +1785,7 @@
         <v>9</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1793,10 +1793,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="6">
         <v>21</v>
@@ -1811,7 +1811,7 @@
         <v>9</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1819,10 +1819,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="6">
         <v>21</v>
@@ -1845,10 +1845,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="6">
         <v>21</v>
@@ -1863,7 +1863,7 @@
         <v>9</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1871,10 +1871,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="6">
         <v>21</v>
@@ -1897,10 +1897,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43" s="6">
         <v>9</v>
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1923,10 +1923,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="6">
         <v>21</v>
@@ -1941,7 +1941,7 @@
         <v>9</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1949,10 +1949,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D45" s="6">
         <v>21</v>
@@ -1967,7 +1967,7 @@
         <v>9</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1975,10 +1975,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D46" s="6">
         <v>21</v>
@@ -2001,10 +2001,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47" s="9">
         <v>21</v>
@@ -2027,10 +2027,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D48" s="9">
         <v>21</v>
@@ -2045,7 +2045,7 @@
         <v>9</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2053,10 +2053,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49" s="6">
         <v>21</v>
@@ -2071,7 +2071,7 @@
         <v>9</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2079,10 +2079,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D50" s="6">
         <v>21</v>
@@ -2105,10 +2105,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D51" s="6">
         <v>21</v>
@@ -2131,10 +2131,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D52" s="6">
         <v>21</v>
@@ -2157,10 +2157,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D53" s="6">
         <v>21</v>
@@ -2183,10 +2183,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="D54" s="6">
         <v>21</v>
@@ -2209,10 +2209,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="D55" s="6">
         <v>21</v>
@@ -2235,10 +2235,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D56" s="6">
         <v>21</v>
@@ -2261,10 +2261,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D57" s="6">
         <v>21</v>
@@ -2287,10 +2287,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D58" s="6">
         <v>21</v>
@@ -2305,7 +2305,7 @@
         <v>9</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2313,10 +2313,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D59" s="9">
         <v>22</v>
@@ -2331,7 +2331,7 @@
         <v>9</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2339,10 +2339,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D60" s="9">
         <v>21</v>
@@ -2365,10 +2365,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D61" s="6">
         <v>21</v>
@@ -2383,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2391,10 +2391,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D62" s="6">
         <v>32</v>
@@ -2417,10 +2417,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D63" s="9">
         <v>21</v>
@@ -2443,10 +2443,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D64" s="9">
         <v>21</v>
@@ -2469,10 +2469,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D65" s="9">
         <v>21</v>
@@ -2495,10 +2495,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D66" s="9">
         <v>21</v>
@@ -2521,10 +2521,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D67" s="6">
         <v>21</v>
@@ -2547,10 +2547,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="D68" s="6">
         <v>21</v>
@@ -2565,7 +2565,7 @@
         <v>9</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2573,10 +2573,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D69" s="9">
         <v>21</v>
@@ -2599,10 +2599,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D70" s="9">
         <v>21</v>
@@ -2625,10 +2625,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D71" s="6">
         <v>21</v>
@@ -2643,7 +2643,7 @@
         <v>9</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2651,10 +2651,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D72" s="6">
         <v>21</v>
@@ -2677,10 +2677,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D73" s="6">
         <v>21</v>
@@ -2695,7 +2695,7 @@
         <v>9</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2703,10 +2703,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D74" s="6">
         <v>21</v>
@@ -2721,7 +2721,7 @@
         <v>9</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2729,10 +2729,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D75" s="6">
         <v>21</v>
@@ -2747,7 +2747,7 @@
         <v>9</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2755,10 +2755,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D76" s="6">
         <v>21</v>
@@ -2773,7 +2773,7 @@
         <v>9</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2781,10 +2781,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>65</v>
       </c>
       <c r="D77" s="6">
         <v>21</v>
@@ -2799,7 +2799,7 @@
         <v>9</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2807,10 +2807,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>65</v>
       </c>
       <c r="D78" s="6">
         <v>21</v>
@@ -2825,7 +2825,7 @@
         <v>9</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2833,10 +2833,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D79" s="6">
         <v>21</v>
@@ -2851,7 +2851,7 @@
         <v>9</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2859,10 +2859,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D80" s="6">
         <v>21</v>
@@ -2877,7 +2877,7 @@
         <v>9</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2885,10 +2885,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D81" s="6">
         <v>21</v>
@@ -2903,7 +2903,7 @@
         <v>9</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2911,10 +2911,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D82" s="6">
         <v>21</v>
@@ -2929,7 +2929,7 @@
         <v>9</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2937,10 +2937,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D83" s="6">
         <v>21</v>
@@ -2963,10 +2963,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D84" s="6">
         <v>21</v>
@@ -2981,7 +2981,7 @@
         <v>9</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2989,10 +2989,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D85" s="6">
         <v>21</v>
@@ -3007,7 +3007,7 @@
         <v>9</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3015,10 +3015,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D86" s="6">
         <v>21</v>
@@ -3033,7 +3033,7 @@
         <v>9</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3041,10 +3041,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D87" s="6">
         <v>21</v>
@@ -3059,7 +3059,7 @@
         <v>9</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3067,10 +3067,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D88" s="6">
         <v>230</v>
@@ -3085,7 +3085,7 @@
         <v>9</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>8</v>
@@ -3111,7 +3111,7 @@
         <v>9</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3119,7 +3119,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C90" s="17" t="s">
         <v>8</v>
@@ -3137,7 +3137,7 @@
         <v>9</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3145,7 +3145,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>8</v>
@@ -3163,7 +3163,7 @@
         <v>9</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3171,10 +3171,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D92" s="6">
         <v>21</v>
@@ -3189,7 +3189,7 @@
         <v>9</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3197,10 +3197,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="6">
         <v>21</v>
@@ -3215,7 +3215,7 @@
         <v>9</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3223,10 +3223,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="6">
         <v>21</v>
@@ -3241,7 +3241,7 @@
         <v>9</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3249,10 +3249,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D95" s="6">
         <v>29</v>
@@ -3267,7 +3267,7 @@
         <v>9</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3275,10 +3275,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D96" s="6">
         <v>21</v>
@@ -3293,7 +3293,7 @@
         <v>9</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3301,10 +3301,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D97" s="6">
         <v>21</v>
@@ -3327,10 +3327,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D98" s="6">
         <v>8</v>
@@ -3345,7 +3345,7 @@
         <v>9</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3353,10 +3353,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D99" s="8">
         <v>16</v>
@@ -3371,7 +3371,7 @@
         <v>9</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3379,10 +3379,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D100" s="8">
         <v>21</v>
@@ -3397,7 +3397,7 @@
         <v>9</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3405,10 +3405,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D101" s="8">
         <v>21</v>
@@ -3423,7 +3423,7 @@
         <v>9</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3431,10 +3431,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D102" s="11">
         <v>21</v>
@@ -3449,7 +3449,7 @@
         <v>9</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
